--- a/templates/report_merchant_factoring_fixed.xlsx
+++ b/templates/report_merchant_factoring_fixed.xlsx
@@ -599,12 +599,27 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="43" fontId="13" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="8" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -660,21 +675,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1005,13 +1005,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>334125</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3173522</xdr:colOff>
+      <xdr:colOff>1639247</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1447800</xdr:rowOff>
     </xdr:to>
@@ -1023,21 +1023,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="190500"/>
-          <a:ext cx="3173522" cy="1447800"/>
+          <a:off x="334125" y="190500"/>
+          <a:ext cx="1305122" cy="1447800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1352,7 +1346,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1363,22 +1357,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="114.75" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="2" t="s">
@@ -1398,151 +1392,151 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:4">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="33"/>
+      <c r="D9" s="38"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="31"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="35"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="30"/>
+      <c r="D15" s="35"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="28"/>
+      <c r="D17" s="33"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="22"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="24"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="20"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="41"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="25" spans="1:4" ht="15.75">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="28" spans="1:4">
@@ -1577,10 +1571,10 @@
       <c r="A30" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="16"/>
@@ -1593,6 +1587,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="A1:D3"/>
@@ -1609,8 +1605,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/templates/report_merchant_factoring_fixed.xlsx
+++ b/templates/report_merchant_factoring_fixed.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isa\dev\g_work\CCS.TEST1\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13440" windowHeight="12705"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>ОТЧЕТ О СОСТОЯНИИ ФАКТОРИНГОВЫХ ПЛАТЕЖЕЙ</t>
   </si>
@@ -51,12 +56,6 @@
     <t>График</t>
   </si>
   <si>
-    <t>Оплата</t>
-  </si>
-  <si>
-    <t>Вид оплаты</t>
-  </si>
-  <si>
     <t>ИТОГО</t>
   </si>
   <si>
@@ -138,24 +137,36 @@
     <t>${table:t1.paid}</t>
   </si>
   <si>
-    <t>${table:t1.type}</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ${total_pending} </t>
   </si>
   <si>
     <t xml:space="preserve"> ${total_paid} </t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Оплата (процессинг)</t>
+  </si>
+  <si>
+    <t>Оплата по счету</t>
+  </si>
+  <si>
+    <t>${table:t1.paid_amount}</t>
+  </si>
+  <si>
+    <t>${table:t1.paid_amount_later}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +303,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -321,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -528,26 +551,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -565,7 +627,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -573,7 +635,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="9" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -581,25 +642,22 @@
     <xf numFmtId="43" fontId="9" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -665,16 +723,25 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -685,7 +752,24 @@
     <cellStyle name="Обычный 2 2" xfId="2"/>
     <cellStyle name="Финансовый 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -729,7 +813,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -762,7 +846,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -789,7 +873,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -822,7 +906,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -854,7 +938,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -913,7 +997,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1044,12 +1128,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A28:D30" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" totalsRowBorderDxfId="8">
-  <tableColumns count="4">
-    <tableColumn id="1" name="Дата" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" name="График" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="3" name="Оплата" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="Вид оплаты" dataDxfId="1" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A28:E30" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" totalsRowBorderDxfId="9">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Дата" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="График" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="3" name="Итого" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="4" name="Оплата (процессинг)" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="5" name="Оплата по счету" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1098,7 +1183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1130,9 +1215,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1164,6 +1250,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1339,259 +1426,264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.42578125" customWidth="1"/>
-    <col min="2" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:4" ht="114.75" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="36"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="29"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="29"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="31"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="27"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="23"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="43" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="9" spans="1:4">
-      <c r="A9" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="38"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A10" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="42"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="31"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="31"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="35"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="35"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="31"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="33"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="27"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="27"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="29"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="25"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="21"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75">
-      <c r="A25" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A29" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="11" t="s">
+      <c r="B30" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C30" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A30" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="16"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="8"/>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="14"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="37"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A1:D3"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C19:D19"/>
@@ -1599,6 +1691,11 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A1:D3"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C12:D12"/>
@@ -1607,7 +1704,7 @@
     <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -1616,24 +1713,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
